--- a/AM.xlsx
+++ b/AM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gs\Documents\AI24\AfiliateMarketing\vvl1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0DC2BD-F95B-4B69-A823-12551766661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999059A8-7484-41FD-971D-88AB45F331E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23700" yWindow="990" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinterest" sheetId="1" r:id="rId1"/>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EA93F1-B1BE-400B-AA1A-73959E342B20}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
